--- a/product-definitions/spreadsheet/o2n2-concentration-ratio.xlsx
+++ b/product-definitions/spreadsheet/o2n2-concentration-ratio.xlsx
@@ -12,12 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
   <si>
     <t>Variable</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>Attribute</t>
@@ -27,12 +33,6 @@
   </si>
   <si>
     <t>Proposed name</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>units</t>
   </si>
   <si>
     <t>example value</t>
@@ -83,18 +83,7 @@
     <t>cell_methods</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">time: </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <t>"time: mean" or "time:point"</t>
+    <t>time: mean or time: point</t>
   </si>
   <si>
     <t>coordinates</t>
@@ -178,15 +167,15 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
@@ -260,125 +249,125 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" ht="12.0" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -406,22 +395,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -453,7 +442,7 @@
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>14</v>
@@ -510,47 +499,45 @@
       <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6" t="s">
+    </row>
+    <row r="13" ht="12.0" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" ht="12.0" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" ht="12.0" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -558,51 +545,51 @@
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
-        <v>6</v>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C17" s="15">
         <v>1.0</v>
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" ht="12.0" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" ht="12.0" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="16" t="s">
+      <c r="C20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="11" t="s">
+    </row>
+    <row r="21" ht="12.0" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="15"/>
     </row>
     <row r="23">
